--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gpc3-Igf1r.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3375465</v>
+        <v>2.61367</v>
       </c>
       <c r="H2">
-        <v>0.6750929999999999</v>
+        <v>5.22734</v>
       </c>
       <c r="I2">
-        <v>0.007757102082074436</v>
+        <v>0.1226939779576896</v>
       </c>
       <c r="J2">
-        <v>0.007032602246591258</v>
+        <v>0.09772333643945084</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N2">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O2">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P2">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q2">
-        <v>3.895885079944499</v>
+        <v>44.43995918832</v>
       </c>
       <c r="R2">
-        <v>15.583540319778</v>
+        <v>177.75983675328</v>
       </c>
       <c r="S2">
-        <v>0.00174585698382252</v>
+        <v>0.02474101564686778</v>
       </c>
       <c r="T2">
-        <v>0.001286266090480046</v>
+        <v>0.01474503548318585</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3375465</v>
+        <v>2.61367</v>
       </c>
       <c r="H3">
-        <v>0.6750929999999999</v>
+        <v>5.22734</v>
       </c>
       <c r="I3">
-        <v>0.007757102082074436</v>
+        <v>0.1226939779576896</v>
       </c>
       <c r="J3">
-        <v>0.007032602246591258</v>
+        <v>0.09772333643945084</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>26.479315</v>
       </c>
       <c r="O3">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P3">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q3">
-        <v>2.9793333668825</v>
+        <v>23.06939707868333</v>
       </c>
       <c r="R3">
-        <v>17.876000201295</v>
+        <v>138.4163824721</v>
       </c>
       <c r="S3">
-        <v>0.001335124075523648</v>
+        <v>0.01284340320090846</v>
       </c>
       <c r="T3">
-        <v>0.001475485828028312</v>
+        <v>0.01148152759522423</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3375465</v>
+        <v>2.61367</v>
       </c>
       <c r="H4">
-        <v>0.6750929999999999</v>
+        <v>5.22734</v>
       </c>
       <c r="I4">
-        <v>0.007757102082074436</v>
+        <v>0.1226939779576896</v>
       </c>
       <c r="J4">
-        <v>0.007032602246591258</v>
+        <v>0.09772333643945084</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N4">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O4">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P4">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q4">
-        <v>1.1502705973945</v>
+        <v>8.856608979239999</v>
       </c>
       <c r="R4">
-        <v>6.901623584367</v>
+        <v>53.13965387544</v>
       </c>
       <c r="S4">
-        <v>0.0005154689921642912</v>
+        <v>0.004930731380850536</v>
       </c>
       <c r="T4">
-        <v>0.0005696603084834248</v>
+        <v>0.004407891547768985</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3375465</v>
+        <v>2.61367</v>
       </c>
       <c r="H5">
-        <v>0.6750929999999999</v>
+        <v>5.22734</v>
       </c>
       <c r="I5">
-        <v>0.007757102082074436</v>
+        <v>0.1226939779576896</v>
       </c>
       <c r="J5">
-        <v>0.007032602246591258</v>
+        <v>0.09772333643945084</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N5">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O5">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P5">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q5">
-        <v>5.432949986658</v>
+        <v>27.65563693417</v>
       </c>
       <c r="R5">
-        <v>21.731799946632</v>
+        <v>110.62254773668</v>
       </c>
       <c r="S5">
-        <v>0.002434659514417828</v>
+        <v>0.01539669609535168</v>
       </c>
       <c r="T5">
-        <v>0.001793743705399995</v>
+        <v>0.009176051359012458</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3375465</v>
+        <v>2.61367</v>
       </c>
       <c r="H6">
-        <v>0.6750929999999999</v>
+        <v>5.22734</v>
       </c>
       <c r="I6">
-        <v>0.007757102082074436</v>
+        <v>0.1226939779576896</v>
       </c>
       <c r="J6">
-        <v>0.007032602246591258</v>
+        <v>0.09772333643945084</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N6">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O6">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P6">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q6">
-        <v>3.0162632042925</v>
+        <v>109.68453293772</v>
       </c>
       <c r="R6">
-        <v>18.097579225755</v>
+        <v>658.10719762632</v>
       </c>
       <c r="S6">
-        <v>0.001351673386714983</v>
+        <v>0.06106456430645754</v>
       </c>
       <c r="T6">
-        <v>0.001493774970269169</v>
+        <v>0.05458946271540745</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.3375465</v>
+        <v>2.61367</v>
       </c>
       <c r="H7">
-        <v>0.6750929999999999</v>
+        <v>5.22734</v>
       </c>
       <c r="I7">
-        <v>0.007757102082074436</v>
+        <v>0.1226939779576896</v>
       </c>
       <c r="J7">
-        <v>0.007032602246591258</v>
+        <v>0.09772333643945084</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N7">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O7">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P7">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q7">
-        <v>0.8352942566324999</v>
+        <v>6.67751650381</v>
       </c>
       <c r="R7">
-        <v>5.011765539794999</v>
+        <v>40.06509902286</v>
       </c>
       <c r="S7">
-        <v>0.0003743191294311652</v>
+        <v>0.003717567327253582</v>
       </c>
       <c r="T7">
-        <v>0.0004136713439303096</v>
+        <v>0.003323367738851869</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.520167</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H8">
         <v>22.560501</v>
       </c>
       <c r="I8">
-        <v>0.1728197539990712</v>
+        <v>0.3530205435790076</v>
       </c>
       <c r="J8">
-        <v>0.235018034577198</v>
+        <v>0.4217608629753503</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N8">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O8">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P8">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q8">
-        <v>86.796060436091</v>
+        <v>127.864617403632</v>
       </c>
       <c r="R8">
-        <v>520.776362616546</v>
+        <v>767.1877044217921</v>
       </c>
       <c r="S8">
-        <v>0.03889578495544066</v>
+        <v>0.07118594520886674</v>
       </c>
       <c r="T8">
-        <v>0.04298490344373467</v>
+        <v>0.06363760301863854</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.520167</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H9">
         <v>22.560501</v>
       </c>
       <c r="I9">
-        <v>0.1728197539990712</v>
+        <v>0.3530205435790076</v>
       </c>
       <c r="J9">
-        <v>0.235018034577198</v>
+        <v>0.4217608629753503</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>26.479315</v>
       </c>
       <c r="O9">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P9">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q9">
-        <v>66.37629028186834</v>
+        <v>66.37629028186835</v>
       </c>
       <c r="R9">
-        <v>597.3866125368149</v>
+        <v>597.3866125368151</v>
       </c>
       <c r="S9">
-        <v>0.02974510478899485</v>
+        <v>0.03695360811394176</v>
       </c>
       <c r="T9">
-        <v>0.0493083167781603</v>
+        <v>0.04955273902091387</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.520167</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H10">
         <v>22.560501</v>
       </c>
       <c r="I10">
-        <v>0.1728197539990712</v>
+        <v>0.3530205435790076</v>
       </c>
       <c r="J10">
-        <v>0.235018034577198</v>
+        <v>0.4217608629753503</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N10">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O10">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P10">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q10">
-        <v>25.62677138585767</v>
+        <v>25.482627331524</v>
       </c>
       <c r="R10">
-        <v>230.640942472719</v>
+        <v>229.343645983716</v>
       </c>
       <c r="S10">
-        <v>0.0114840856130849</v>
+        <v>0.01418691855365698</v>
       </c>
       <c r="T10">
-        <v>0.01903711334468083</v>
+        <v>0.01902387096904616</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.520167</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H11">
         <v>22.560501</v>
       </c>
       <c r="I11">
-        <v>0.1728197539990712</v>
+        <v>0.3530205435790076</v>
       </c>
       <c r="J11">
-        <v>0.235018034577198</v>
+        <v>0.4217608629753503</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N11">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O11">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P11">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q11">
-        <v>121.040186173804</v>
+        <v>79.57202257221701</v>
       </c>
       <c r="R11">
-        <v>726.241117042824</v>
+        <v>477.4321354333021</v>
       </c>
       <c r="S11">
-        <v>0.05424155230926992</v>
+        <v>0.0443000554336594</v>
       </c>
       <c r="T11">
-        <v>0.0599439731406196</v>
+        <v>0.03960261162676465</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.520167</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H12">
         <v>22.560501</v>
       </c>
       <c r="I12">
-        <v>0.1728197539990712</v>
+        <v>0.3530205435790076</v>
       </c>
       <c r="J12">
-        <v>0.235018034577198</v>
+        <v>0.4217608629753503</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N12">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O12">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P12">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q12">
-        <v>67.199046686115</v>
+        <v>315.589192594572</v>
       </c>
       <c r="R12">
-        <v>604.791420175035</v>
+        <v>2840.302733351148</v>
       </c>
       <c r="S12">
-        <v>0.03011380534993624</v>
+        <v>0.1756976670225392</v>
       </c>
       <c r="T12">
-        <v>0.04991950992016295</v>
+        <v>0.2356008272238677</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.520167</v>
+        <v>7.520167000000001</v>
       </c>
       <c r="H13">
         <v>22.560501</v>
       </c>
       <c r="I13">
-        <v>0.1728197539990712</v>
+        <v>0.3530205435790076</v>
       </c>
       <c r="J13">
-        <v>0.235018034577198</v>
+        <v>0.4217608629753503</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N13">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O13">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P13">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q13">
-        <v>18.609442859035</v>
+        <v>19.212846018781</v>
       </c>
       <c r="R13">
-        <v>167.484985731315</v>
+        <v>172.915614169029</v>
       </c>
       <c r="S13">
-        <v>0.008339420982344588</v>
+        <v>0.01069634924634349</v>
       </c>
       <c r="T13">
-        <v>0.01382421794983964</v>
+        <v>0.01434321111611935</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.09166733333333332</v>
+        <v>0.128251</v>
       </c>
       <c r="H14">
-        <v>0.275002</v>
+        <v>0.384753</v>
       </c>
       <c r="I14">
-        <v>0.002106592313231544</v>
+        <v>0.006020509615617751</v>
       </c>
       <c r="J14">
-        <v>0.002864760385631445</v>
+        <v>0.007192825962169675</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N14">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O14">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P14">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q14">
-        <v>1.058003552848666</v>
+        <v>2.180638414896</v>
       </c>
       <c r="R14">
-        <v>6.348021317091999</v>
+        <v>13.083830489376</v>
       </c>
       <c r="S14">
-        <v>0.0004741215035214019</v>
+        <v>0.001214024722985855</v>
       </c>
       <c r="T14">
-        <v>0.0005239659534526259</v>
+        <v>0.001085293215528779</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.09166733333333332</v>
+        <v>0.128251</v>
       </c>
       <c r="H15">
-        <v>0.275002</v>
+        <v>0.384753</v>
       </c>
       <c r="I15">
-        <v>0.002106592313231544</v>
+        <v>0.006020509615617751</v>
       </c>
       <c r="J15">
-        <v>0.002864760385631445</v>
+        <v>0.007192825962169675</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>26.479315</v>
       </c>
       <c r="O15">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P15">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q15">
-        <v>0.8090960648477777</v>
+        <v>1.131999542688333</v>
       </c>
       <c r="R15">
-        <v>7.281864583629999</v>
+        <v>10.187995884195</v>
       </c>
       <c r="S15">
-        <v>0.0003625789740743417</v>
+        <v>0.0006302170143590089</v>
       </c>
       <c r="T15">
-        <v>0.0006010454169713535</v>
+        <v>0.0008450860642019285</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.09166733333333332</v>
+        <v>0.128251</v>
       </c>
       <c r="H16">
-        <v>0.275002</v>
+        <v>0.384753</v>
       </c>
       <c r="I16">
-        <v>0.002106592313231544</v>
+        <v>0.006020509615617751</v>
       </c>
       <c r="J16">
-        <v>0.002864760385631445</v>
+        <v>0.007192825962169675</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N16">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O16">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P16">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q16">
-        <v>0.3123784079375555</v>
+        <v>0.434587747572</v>
       </c>
       <c r="R16">
-        <v>2.811405671438</v>
+        <v>3.911289728148</v>
       </c>
       <c r="S16">
-        <v>0.0001399856550955838</v>
+        <v>0.0002419476178421385</v>
       </c>
       <c r="T16">
-        <v>0.000232053545442715</v>
+        <v>0.0003244383370277733</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.09166733333333332</v>
+        <v>0.128251</v>
       </c>
       <c r="H17">
-        <v>0.275002</v>
+        <v>0.384753</v>
       </c>
       <c r="I17">
-        <v>0.002106592313231544</v>
+        <v>0.006020509615617751</v>
       </c>
       <c r="J17">
-        <v>0.002864760385631445</v>
+        <v>0.007192825962169675</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N17">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O17">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P17">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q17">
-        <v>1.475423496941333</v>
+        <v>1.357043196901</v>
       </c>
       <c r="R17">
-        <v>8.852540981648001</v>
+        <v>8.142259181406001</v>
       </c>
       <c r="S17">
-        <v>0.0006611792605205818</v>
+        <v>0.0007555053510676362</v>
       </c>
       <c r="T17">
-        <v>0.0007306891146440706</v>
+        <v>0.0006753938501291518</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.09166733333333332</v>
+        <v>0.128251</v>
       </c>
       <c r="H18">
-        <v>0.275002</v>
+        <v>0.384753</v>
       </c>
       <c r="I18">
-        <v>0.002106592313231544</v>
+        <v>0.006020509615617751</v>
       </c>
       <c r="J18">
-        <v>0.002864760385631445</v>
+        <v>0.007192825962169675</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N18">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O18">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P18">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q18">
-        <v>0.8191250822299999</v>
+        <v>5.382145042716</v>
       </c>
       <c r="R18">
-        <v>7.37212574007</v>
+        <v>48.439305384444</v>
       </c>
       <c r="S18">
-        <v>0.0003670732621958691</v>
+        <v>0.002996396422221431</v>
       </c>
       <c r="T18">
-        <v>0.0006084955767190033</v>
+        <v>0.004018001421017413</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.09166733333333332</v>
+        <v>0.128251</v>
       </c>
       <c r="H19">
-        <v>0.275002</v>
+        <v>0.384753</v>
       </c>
       <c r="I19">
-        <v>0.002106592313231544</v>
+        <v>0.006020509615617751</v>
       </c>
       <c r="J19">
-        <v>0.002864760385631445</v>
+        <v>0.007192825962169675</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N19">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O19">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P19">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q19">
-        <v>0.2268404414033333</v>
+        <v>0.327661169593</v>
       </c>
       <c r="R19">
-        <v>2.04156397263</v>
+        <v>2.948950526337</v>
       </c>
       <c r="S19">
-        <v>0.0001016536578237658</v>
+        <v>0.0001824184871416817</v>
       </c>
       <c r="T19">
-        <v>0.0001685107784016765</v>
+        <v>0.0002446130742646304</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>34.21122</v>
+        <v>7.8021635</v>
       </c>
       <c r="H20">
-        <v>68.42244000000001</v>
+        <v>15.604327</v>
       </c>
       <c r="I20">
-        <v>0.7862025702897427</v>
+        <v>0.3662583556804379</v>
       </c>
       <c r="J20">
-        <v>0.7127726183818461</v>
+        <v>0.291717565211409</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N20">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O20">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P20">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q20">
-        <v>394.85813529306</v>
+        <v>132.659374565496</v>
       </c>
       <c r="R20">
-        <v>1579.43254117224</v>
+        <v>530.637498261984</v>
       </c>
       <c r="S20">
-        <v>0.1769471683518825</v>
+        <v>0.07385532574231661</v>
       </c>
       <c r="T20">
-        <v>0.1303664301065268</v>
+        <v>0.04401595367935414</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>34.21122</v>
+        <v>7.8021635</v>
       </c>
       <c r="H21">
-        <v>68.42244000000001</v>
+        <v>15.604327</v>
       </c>
       <c r="I21">
-        <v>0.7862025702897427</v>
+        <v>0.3662583556804379</v>
       </c>
       <c r="J21">
-        <v>0.7127726183818461</v>
+        <v>0.291717565211409</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>26.479315</v>
       </c>
       <c r="O21">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P21">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q21">
-        <v>301.9632236381</v>
+        <v>68.86531499933417</v>
       </c>
       <c r="R21">
-        <v>1811.7793418286</v>
+        <v>413.191889996005</v>
       </c>
       <c r="S21">
-        <v>0.135318314587875</v>
+        <v>0.03833932044592895</v>
       </c>
       <c r="T21">
-        <v>0.1495443450592993</v>
+        <v>0.03427393493734911</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.21122</v>
+        <v>7.8021635</v>
       </c>
       <c r="H22">
-        <v>68.42244000000001</v>
+        <v>15.604327</v>
       </c>
       <c r="I22">
-        <v>0.7862025702897427</v>
+        <v>0.3662583556804379</v>
       </c>
       <c r="J22">
-        <v>0.7127726183818461</v>
+        <v>0.291717565211409</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N22">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O22">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P22">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q22">
-        <v>116.58293143906</v>
+        <v>26.438192775522</v>
       </c>
       <c r="R22">
-        <v>699.4975886343601</v>
+        <v>158.629156653132</v>
       </c>
       <c r="S22">
-        <v>0.05224412960617528</v>
+        <v>0.01471890958230253</v>
       </c>
       <c r="T22">
-        <v>0.05773656115170597</v>
+        <v>0.01315816095603564</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.21122</v>
+        <v>7.8021635</v>
       </c>
       <c r="H23">
-        <v>68.42244000000001</v>
+        <v>15.604327</v>
       </c>
       <c r="I23">
-        <v>0.7862025702897427</v>
+        <v>0.3662583556804379</v>
       </c>
       <c r="J23">
-        <v>0.7127726183818461</v>
+        <v>0.291717565211409</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N23">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O23">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P23">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q23">
-        <v>550.6436809226402</v>
+        <v>82.5558701201885</v>
       </c>
       <c r="R23">
-        <v>2202.574723690561</v>
+        <v>330.223480480754</v>
       </c>
       <c r="S23">
-        <v>0.2467591051094931</v>
+        <v>0.04596125000315471</v>
       </c>
       <c r="T23">
-        <v>0.1818006127424057</v>
+        <v>0.02739177210107335</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.21122</v>
+        <v>7.8021635</v>
       </c>
       <c r="H24">
-        <v>68.42244000000001</v>
+        <v>15.604327</v>
       </c>
       <c r="I24">
-        <v>0.7862025702897427</v>
+        <v>0.3662583556804379</v>
       </c>
       <c r="J24">
-        <v>0.7127726183818461</v>
+        <v>0.291717565211409</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N24">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O24">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P24">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q24">
-        <v>305.7061591809</v>
+        <v>327.423377626566</v>
       </c>
       <c r="R24">
-        <v>1834.2369550854</v>
+        <v>1964.540265759396</v>
       </c>
       <c r="S24">
-        <v>0.1369956305310568</v>
+        <v>0.1822861014493971</v>
       </c>
       <c r="T24">
-        <v>0.151397997426642</v>
+        <v>0.1629570349289554</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.21122</v>
+        <v>7.8021635</v>
       </c>
       <c r="H25">
-        <v>68.42244000000001</v>
+        <v>15.604327</v>
       </c>
       <c r="I25">
-        <v>0.7862025702897427</v>
+        <v>0.3662583556804379</v>
       </c>
       <c r="J25">
-        <v>0.7127726183818461</v>
+        <v>0.291717565211409</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N25">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O25">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P25">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q25">
-        <v>84.65925606810001</v>
+        <v>19.9333028028305</v>
       </c>
       <c r="R25">
-        <v>507.9555364086001</v>
+        <v>119.599816816983</v>
       </c>
       <c r="S25">
-        <v>0.03793822210326005</v>
+        <v>0.01109744845733794</v>
       </c>
       <c r="T25">
-        <v>0.04192667189526625</v>
+        <v>0.009920708608641329</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.353909666666667</v>
+        <v>3.238098</v>
       </c>
       <c r="H26">
-        <v>4.061729</v>
+        <v>9.714294000000001</v>
       </c>
       <c r="I26">
-        <v>0.03111398131588005</v>
+        <v>0.1520066131672471</v>
       </c>
       <c r="J26">
-        <v>0.04231198440873311</v>
+        <v>0.1816054094116202</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.541773</v>
+        <v>17.002896</v>
       </c>
       <c r="N26">
-        <v>23.083546</v>
+        <v>34.005792</v>
       </c>
       <c r="O26">
-        <v>0.2250656192673999</v>
+        <v>0.2016481661015148</v>
       </c>
       <c r="P26">
-        <v>0.1829004464319742</v>
+        <v>0.1508855102621455</v>
       </c>
       <c r="Q26">
-        <v>15.62651803517233</v>
+        <v>55.05704353180801</v>
       </c>
       <c r="R26">
-        <v>93.75910821103399</v>
+        <v>330.342261190848</v>
       </c>
       <c r="S26">
-        <v>0.007002687472732854</v>
+        <v>0.03065185478047775</v>
       </c>
       <c r="T26">
-        <v>0.00773888083778002</v>
+        <v>0.02740162486543815</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.353909666666667</v>
+        <v>3.238098</v>
       </c>
       <c r="H27">
-        <v>4.061729</v>
+        <v>9.714294000000001</v>
       </c>
       <c r="I27">
-        <v>0.03111398131588005</v>
+        <v>0.1520066131672471</v>
       </c>
       <c r="J27">
-        <v>0.04231198440873311</v>
+        <v>0.1816054094116202</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>26.479315</v>
       </c>
       <c r="O27">
-        <v>0.1721163472386074</v>
+        <v>0.1046783502719053</v>
       </c>
       <c r="P27">
-        <v>0.20980652343071</v>
+        <v>0.1174901309508416</v>
       </c>
       <c r="Q27">
-        <v>11.95020018173722</v>
+        <v>28.58087231429</v>
       </c>
       <c r="R27">
-        <v>107.551801635635</v>
+        <v>257.22785082861</v>
       </c>
       <c r="S27">
-        <v>0.005355224812139556</v>
+        <v>0.01591180149676711</v>
       </c>
       <c r="T27">
-        <v>0.0088773303482507</v>
+        <v>0.02133684333315246</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.353909666666667</v>
+        <v>3.238098</v>
       </c>
       <c r="H28">
-        <v>4.061729</v>
+        <v>9.714294000000001</v>
       </c>
       <c r="I28">
-        <v>0.03111398131588005</v>
+        <v>0.1520066131672471</v>
       </c>
       <c r="J28">
-        <v>0.04231198440873311</v>
+        <v>0.1816054094116202</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.407739666666667</v>
+        <v>3.388572</v>
       </c>
       <c r="N28">
-        <v>10.223219</v>
+        <v>10.165716</v>
       </c>
       <c r="O28">
-        <v>0.06645123226565072</v>
+        <v>0.04018723219285363</v>
       </c>
       <c r="P28">
-        <v>0.0810027765695895</v>
+        <v>0.04510582332092299</v>
       </c>
       <c r="Q28">
-        <v>4.613771676183444</v>
+        <v>10.972528216056</v>
       </c>
       <c r="R28">
-        <v>41.523945085651</v>
+        <v>98.75275394450401</v>
       </c>
       <c r="S28">
-        <v>0.002067562399130662</v>
+        <v>0.006108725058201441</v>
       </c>
       <c r="T28">
-        <v>0.003427388219276563</v>
+        <v>0.008191461511044426</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.353909666666667</v>
+        <v>3.238098</v>
       </c>
       <c r="H29">
-        <v>4.061729</v>
+        <v>9.714294000000001</v>
       </c>
       <c r="I29">
-        <v>0.03111398131588005</v>
+        <v>0.1520066131672471</v>
       </c>
       <c r="J29">
-        <v>0.04231198440873311</v>
+        <v>0.1816054094116202</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.095412</v>
+        <v>10.581151</v>
       </c>
       <c r="N29">
-        <v>32.19082400000001</v>
+        <v>21.162302</v>
       </c>
       <c r="O29">
-        <v>0.3138619923597475</v>
+        <v>0.1254886046702403</v>
       </c>
       <c r="P29">
-        <v>0.2550611626399649</v>
+        <v>0.09389826108421828</v>
       </c>
       <c r="Q29">
-        <v>21.79173389578267</v>
+        <v>34.262803890798</v>
       </c>
       <c r="R29">
-        <v>130.750403374696</v>
+        <v>205.576823344788</v>
       </c>
       <c r="S29">
-        <v>0.009765496166046073</v>
+        <v>0.01907509778700681</v>
       </c>
       <c r="T29">
-        <v>0.01079214393689554</v>
+        <v>0.01705243214723867</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.353909666666667</v>
+        <v>3.238098</v>
       </c>
       <c r="H30">
-        <v>4.061729</v>
+        <v>9.714294000000001</v>
       </c>
       <c r="I30">
-        <v>0.03111398131588005</v>
+        <v>0.1520066131672471</v>
       </c>
       <c r="J30">
-        <v>0.04231198440873311</v>
+        <v>0.1816054094116202</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.935845</v>
+        <v>41.965716</v>
       </c>
       <c r="N30">
-        <v>26.807535</v>
+        <v>125.897148</v>
       </c>
       <c r="O30">
-        <v>0.174249787151636</v>
+        <v>0.4976981374547604</v>
       </c>
       <c r="P30">
-        <v>0.2124071457323227</v>
+        <v>0.5586123509938791</v>
       </c>
       <c r="Q30">
-        <v>12.098326925335</v>
+        <v>135.889101048168</v>
       </c>
       <c r="R30">
-        <v>108.884942328015</v>
+        <v>1223.001909433512</v>
       </c>
       <c r="S30">
-        <v>0.005421604621732079</v>
+        <v>0.07565340825414515</v>
       </c>
       <c r="T30">
-        <v>0.008987367838529541</v>
+        <v>0.1014470247046311</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.353909666666667</v>
+        <v>3.238098</v>
       </c>
       <c r="H31">
-        <v>4.061729</v>
+        <v>9.714294000000001</v>
       </c>
       <c r="I31">
-        <v>0.03111398131588005</v>
+        <v>0.1520066131672471</v>
       </c>
       <c r="J31">
-        <v>0.04231198440873311</v>
+        <v>0.1816054094116202</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.474605</v>
+        <v>2.554843</v>
       </c>
       <c r="N31">
-        <v>7.423815</v>
+        <v>7.664529</v>
       </c>
       <c r="O31">
-        <v>0.0482550217169584</v>
+        <v>0.03029950930872554</v>
       </c>
       <c r="P31">
-        <v>0.05882194519543864</v>
+        <v>0.03400792338799259</v>
       </c>
       <c r="Q31">
-        <v>3.350391630681666</v>
+        <v>8.272832008614001</v>
       </c>
       <c r="R31">
-        <v>30.153524676135</v>
+        <v>74.455488077526</v>
       </c>
       <c r="S31">
-        <v>0.00150140584409883</v>
+        <v>0.004605725790648846</v>
       </c>
       <c r="T31">
-        <v>0.002488873228000753</v>
+        <v>0.006176022850115408</v>
       </c>
     </row>
   </sheetData>
